--- a/data/tab_test_book.xlsx
+++ b/data/tab_test_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\BB_parks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860EEFE8-DE26-46A5-A00A-EFB2D2B1ED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CD9EF0-8505-46C3-A80E-7075E9C45BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2010" windowWidth="18900" windowHeight="11025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="270">
   <si>
     <t>School</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>lugnuts</t>
+  </si>
+  <si>
+    <t>gl_comet</t>
   </si>
 </sst>
 </file>
@@ -1228,9 +1231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8:R19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,10 +2942,10 @@
         <v>20</v>
       </c>
       <c r="Q36" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
